--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="396" windowWidth="18084" windowHeight="6420"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐运维系统</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -52,12 +55,25 @@
     <t>北京烽火</t>
   </si>
   <si>
-    <t>北京烽火</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>杜智恒</t>
+  </si>
+  <si>
+    <t>20170814</t>
+  </si>
+  <si>
+    <t>20170818</t>
+  </si>
+  <si>
+    <t>1.编写gateway和abtest项目的上线文档                     2.完成第二阶段限流需求的开发                               3.优化之前的redis数据导入脚本</t>
+  </si>
+  <si>
+    <t>代码，文档</t>
+  </si>
+  <si>
+    <t>咪咕音乐后台</t>
   </si>
   <si>
     <t>凌河源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -66,50 +82,35 @@
     <t>赵小平</t>
   </si>
   <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
     <t>王琪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>周小龙</t>
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐运维系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜智恒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>范小燕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗健</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周小龙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,38 +145,168 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,12 +315,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -223,18 +540,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -248,31 +813,75 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -563,293 +1172,302 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.775" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="53.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.2" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="53" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>项目名称</t>
   </si>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.解决线上问题：bar中text为title、数字专辑模板中actionURL变为itemId
+2.推荐首页增加彩铃栏目，撰写srs并开发</t>
   </si>
   <si>
     <t>王琪</t>
@@ -105,12 +109,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,37 +149,89 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,75 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -264,13 +251,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -278,15 +275,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -294,11 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -306,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,187 +319,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,11 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +572,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,21 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -627,27 +630,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,143 +648,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -813,14 +805,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,7 +1170,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1253,10 +1242,10 @@
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -1281,7 +1270,7 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" ht="34.5" spans="1:8">
@@ -1317,10 +1306,10 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="34.5" spans="1:8">
+    <row r="7" ht="51.75" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1333,10 +1322,18 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -1346,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -1363,15 +1360,15 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1381,15 +1378,15 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>24</v>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" ht="17.25" spans="1:8">
@@ -1399,15 +1396,15 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
   </sheetData>
@@ -1430,7 +1427,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170818周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -102,19 +107,18 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
+  </si>
+  <si>
+    <t>1.修改点赞活动接口Bug
+2.视频彩铃DIY上传接口开发</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,7 +129,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -136,6 +146,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -158,153 +174,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,192 +200,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -532,259 +239,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -792,89 +257,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1161,57 +586,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.775" customWidth="1"/>
-    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="23.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="48.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="53.775" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="49.2" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +655,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="53" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1270,10 +696,12 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" ht="34.5" spans="1:8">
+    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +719,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" ht="34.5" spans="1:8">
+    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +737,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="51.75" spans="1:8">
+    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1335,7 +763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1353,14 +781,14 @@
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1371,14 +799,14 @@
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1389,14 +817,14 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1408,63 +836,62 @@
       <c r="H11" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A11"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -111,7 +111,11 @@
   <si>
     <t>1.修改点赞活动接口Bug
 2.视频彩铃DIY上传接口开发</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,6 +143,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,12 +183,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -257,34 +261,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -595,7 +599,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -696,10 +700,12 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -788,7 +794,7 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -806,7 +812,7 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -824,7 +830,7 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -836,7 +842,7 @@
       <c r="H11" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -891,7 +897,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170818周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -81,6 +76,13 @@
     <t>凌河源</t>
   </si>
   <si>
+    <t>1.修改点赞活动接口Bug
+2.视频彩铃DIY上传接口开发</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>陆晨曦</t>
   </si>
   <si>
@@ -106,23 +108,27 @@
     <t>周小龙</t>
   </si>
   <si>
+    <t>陈皓阳</t>
+  </si>
+  <si>
+    <t>1.演唱会直播大改版需求分析
+2.广东省音乐流量包需求开发</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.修改点赞活动接口Bug
-2.视频彩铃DIY上传接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,20 +139,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -156,12 +150,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -182,20 +170,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,12 +327,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -243,17 +546,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -261,49 +819,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -590,314 +1204,339 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A11" sqref="A11:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="53.1" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="34.5" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="51.75" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="E12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -10,12 +10,12 @@
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>项目名称</t>
   </si>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>赵小平</t>
+  </si>
+  <si>
+    <t>1.播放列表内容顺序调整接口开发
+2.可配置的定时任务基础功能开发</t>
   </si>
   <si>
     <t>陈毅昌</t>
@@ -124,9 +128,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -191,38 +195,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,14 +218,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -251,41 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,13 +275,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +337,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,169 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,22 +567,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -608,16 +612,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -641,8 +645,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,7 +667,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -675,136 +679,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1213,7 +1217,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1354,8 +1358,12 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" ht="51.75" spans="1:8">
       <c r="A7" s="6" t="s">
@@ -1365,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -1377,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>16</v>
@@ -1391,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -1409,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
@@ -1427,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
@@ -1445,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1463,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1475,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -1499,7 +1507,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\weekReport\weekReport\20170818周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -128,13 +133,26 @@
   </si>
   <si>
     <t>代码，文档</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈平</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉业务与代码
+2.直播视角管控平台开发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,17 +317,17 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -322,6 +340,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -370,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,9 +424,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,6 +476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,10 +901,10 @@
       <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -894,6 +949,32 @@
         <v>31</v>
       </c>
       <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -913,39 +994,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
+      <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\weekReport\weekReport\20170818周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>项目名称</t>
   </si>
@@ -146,13 +141,22 @@
   </si>
   <si>
     <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾昌林</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉业务与代码
+2.开销户代码编写</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,26 +428,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,23 +463,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,6 +943,32 @@
         <v>36</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>37</v>
       </c>
     </row>

--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -109,6 +109,10 @@
     <t>罗健</t>
   </si>
   <si>
+    <t>1.演唱会直播间改版需求业务梳理；
+2.互动栏目需求承接，SRS需求设计</t>
+  </si>
+  <si>
     <t>周小龙</t>
   </si>
   <si>
@@ -119,45 +123,34 @@
 2.广东省音乐流量包需求开发</t>
   </si>
   <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.演唱会直播间改版需求业务梳理；
-2.互动栏目需求承接，SRS需求设计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码，文档</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>陈平</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.熟悉业务与代码
 2.直播视角管控平台开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>曾昌林</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.熟悉业务与代码
 2.开销户代码编写</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,25 +191,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,12 +349,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -277,18 +587,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,38 +873,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -633,402 +1229,403 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="53.1" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="34.5" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="51.75" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="H13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="34.5" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="E14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>37</v>
+      <c r="H14" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,7 +43,7 @@
     <t>输出物</t>
   </si>
   <si>
-    <t>咪咕音乐运维系统</t>
+    <t>咪咕音乐后台</t>
   </si>
   <si>
     <t>刘韬</t>
@@ -55,22 +55,25 @@
     <t>北京烽火</t>
   </si>
   <si>
+    <t>20170814</t>
+  </si>
+  <si>
+    <t>20170818</t>
+  </si>
+  <si>
+    <t>1.歌曲增加影视字段                                                    2.修改bug</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>杜智恒</t>
   </si>
   <si>
-    <t>20170814</t>
-  </si>
-  <si>
-    <t>20170818</t>
-  </si>
-  <si>
     <t>1.编写gateway和abtest项目的上线文档                     2.完成第二阶段限流需求的开发                               3.优化之前的redis数据导入脚本</t>
   </si>
   <si>
     <t>代码，文档</t>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
   </si>
   <si>
     <t>凌河源</t>
@@ -80,9 +83,6 @@
 2.视频彩铃DIY上传接口开发</t>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>陆晨曦</t>
   </si>
   <si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>王琪</t>
-  </si>
-  <si>
-    <t>范小燕</t>
   </si>
   <si>
     <t>罗健</t>
@@ -146,8 +143,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -191,17 +188,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +218,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,67 +241,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,14 +318,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -322,25 +326,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,19 +352,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,145 +508,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +561,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -581,10 +574,23 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,23 +623,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,8 +632,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,166 +676,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -867,11 +858,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -956,7 +947,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1235,10 +1226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1293,10 +1284,18 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" ht="53.1" customHeight="1" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -1306,33 +1305,33 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="34.5" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
@@ -1340,13 +1339,13 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="34.5" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="51.75" spans="1:8">
@@ -1400,21 +1399,21 @@
         <v>11</v>
       </c>
       <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -1430,53 +1429,53 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" ht="34.5" spans="1:8">
-      <c r="A10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="17.25" spans="1:8">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -1487,85 +1486,67 @@
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="34.5" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="G12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" ht="34.5" spans="1:8">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="34.5" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1569,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
+++ b/20170818周报/技术支撑服务人员周报日报-20170818.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170818周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>项目名称</t>
   </si>
@@ -147,13 +142,26 @@
   </si>
   <si>
     <t>1.跟进活动分省bug，熟悉其中逻辑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.远程调用功能迁移；2.从CMS更新tag信息接口开发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1线网代码修改
+2开发新接口</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码，文档</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,23 +647,23 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -681,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -707,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -733,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -755,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -770,10 +778,12 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -795,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -818,10 +828,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -836,10 +846,14 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -865,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -883,7 +897,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -907,7 +921,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -933,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -959,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -998,41 +1012,41 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
     </row>
   </sheetData>
